--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1EDF6C-B924-4C78-AD56-0C8D272F1C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF422811-C95C-48CB-80E9-419C2FA53985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="getDataGraphQL" sheetId="3" r:id="rId1"/>
+    <sheet name="getDataGraphQL" sheetId="4" r:id="rId1"/>
+    <sheet name="queryUpdateFromApiEngine" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>description</t>
   </si>
@@ -51,17 +52,128 @@
     <t>rspCode</t>
   </si>
   <si>
-    <t>query</t>
-  </si>
-  <si>
     <t>explain</t>
+  </si>
+  <si>
+    <t>{ValueDetails(cond:"{id: {_eq: \"System1:GmsDevice_1_7210_4194307.Present_Value\"}}")  {DataType ErrorCode id Value ObjectId PropertyName AttributeId IsArray}}</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-1</t>
+  </si>
+  <si>
+    <t>Successfully</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-2</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-3</t>
+  </si>
+  <si>
+    <t>iot-api-engine-graphql-test-4</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   EnlightedSensorDetails_Update(input:
+	[
+       {
+          id: "2",
+          lightLevel: "20",
+          duration: 3
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{EnlightedFloor(cond:"{id: {_eq: \"1\"}}")  {campus name description company id building parentFloorId floorPlanUrl}}</t>
+  </si>
+  <si>
+    <t>{EnlightedSensorDetails(cond:"{_and:[{floor_id: {_eq: \"1\"}},{from_date:{_eq: \"202201041000\"}},{to_date:{_eq: \"202201041100\"}}]}")  {lightLevel from_date to_date captureTime temperature floor_id id power}}</t>
+  </si>
+  <si>
+    <t>convertToConnectorPath</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>EnlightedSensorDetails</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>good request, query desigoCC,data retrieved</t>
+  </si>
+  <si>
+    <t>good request, query enlighted sensor details,data retrieved</t>
+  </si>
+  <si>
+    <t>good request, query enlighted floor,data retrieved</t>
+  </si>
+  <si>
+    <t>rspCodeOfDatasource</t>
+  </si>
+  <si>
+    <t>rspDataOfDatasource</t>
+  </si>
+  <si>
+    <t>/api/connectors/searchData</t>
+  </si>
+  <si>
+    <t>convertToConnectorParameter</t>
+  </si>
+  <si>
+    <t>graphQLSentence</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>ValueDetails</t>
+  </si>
+  <si>
+    <t>{
+    "condition": "id='System1:GmsDevice_1_7210_4194307.Present_Value'",
+    "name": "ValueDetails"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "condition": "floor_id='1' and from_date='202201041000' and to_date='202201041100'",
+    "name": "EnlightedSensorDetails"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "condition": "id='1'",
+    "name": "EnlightedFloor"
+}</t>
+  </si>
+  <si>
+    <t>EnlightedFloor</t>
+  </si>
+  <si>
+    <t>/api/connectors/dmlData</t>
+  </si>
+  <si>
+    <t>good request, update enlighted,data retrieved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +194,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,13 +248,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,47 +541,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
+        <v>200</v>
+      </c>
+      <c r="J2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+      <c r="J5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF422811-C95C-48CB-80E9-419C2FA53985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4DD81-9626-4E62-970C-12FFEA32A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,12 +91,6 @@
 }</t>
   </si>
   <si>
-    <t>{EnlightedFloor(cond:"{id: {_eq: \"1\"}}")  {campus name description company id building parentFloorId floorPlanUrl}}</t>
-  </si>
-  <si>
-    <t>{EnlightedSensorDetails(cond:"{_and:[{floor_id: {_eq: \"1\"}},{from_date:{_eq: \"202201041000\"}},{to_date:{_eq: \"202201041100\"}}]}")  {lightLevel from_date to_date captureTime temperature floor_id id power}}</t>
-  </si>
-  <si>
     <t>convertToConnectorPath</t>
   </si>
   <si>
@@ -154,19 +148,25 @@
 }</t>
   </si>
   <si>
+    <t>/api/connectors/dmlData</t>
+  </si>
+  <si>
+    <t>good request, update enlighted,data retrieved</t>
+  </si>
+  <si>
+    <t>{EnlightedSensorDetails(cond:"{_and:[{floor_id: {_eq: \"1\"}},{from_date:{_eq: \"202201041000\"}},{to_date:{_eq: \"202201041100\"}}]}")  {lightLevel from_date to_date temperature floor_id id power}}</t>
+  </si>
+  <si>
+    <t>{Floor(cond:"{id: {_eq: \"1\"}}")  {name description id floorPlanUrl}}</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
     <t>{
     "condition": "id='1'",
-    "name": "EnlightedFloor"
+    "name": "Floor"
 }</t>
-  </si>
-  <si>
-    <t>EnlightedFloor</t>
-  </si>
-  <si>
-    <t>/api/connectors/dmlData</t>
-  </si>
-  <si>
-    <t>good request, update enlighted,data retrieved</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -623,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -650,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
@@ -661,21 +661,21 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1">
         <v>200</v>
@@ -694,21 +694,21 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
         <v>200</v>
@@ -727,21 +727,21 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>200</v>
@@ -760,22 +760,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4DD81-9626-4E62-970C-12FFEA32A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093C4E7-2953-4329-AF9C-2EB54231E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>description</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>rspCode</t>
-  </si>
-  <si>
-    <t>explain</t>
   </si>
   <si>
     <t>{ValueDetails(cond:"{id: {_eq: \"System1:GmsDevice_1_7210_4194307.Present_Value\"}}")  {DataType ErrorCode id Value ObjectId PropertyName AttributeId IsArray}}</t>
@@ -167,6 +164,21 @@
     "condition": "id='1'",
     "name": "Floor"
 }</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-1</t>
+  </si>
+  <si>
+    <t>good request, data retrieved</t>
+  </si>
+  <si>
+    <t>{AM100 {tvoc activity illumination co2 temperature infrared_and_visible humidity infrared pressure deviceName devEUI}}</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-2</t>
+  </si>
+  <si>
+    <t>{VS121 {stime people_counter_all deviceName devEUI}}</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -261,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,25 +557,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="73.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -568,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -579,11 +593,49 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5">
+        <v>200</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5">
+        <v>200</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -593,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -623,22 +675,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -650,32 +702,32 @@
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="1">
         <v>200</v>
@@ -684,31 +736,31 @@
         <v>100000</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>200</v>
@@ -717,31 +769,31 @@
         <v>100000</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I4" s="1">
         <v>200</v>
@@ -750,32 +802,32 @@
         <v>100000</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
@@ -785,7 +837,7 @@
         <v>100000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093C4E7-2953-4329-AF9C-2EB54231E92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6237FE2-BB1E-491B-BA1A-493792D5347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>description</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>{VS121 {stime people_counter_all deviceName devEUI}}</t>
+  </si>
+  <si>
+    <t>query</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -582,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6237FE2-BB1E-491B-BA1A-493792D5347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC17B3-B1EC-4971-A1BF-D6B47A96ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL" sheetId="4" r:id="rId1"/>
     <sheet name="queryUpdateFromApiEngine" sheetId="3" r:id="rId2"/>
+    <sheet name="transferOfFlexibleParams" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -182,6 +183,3773 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-1</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_in: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>rspData</t>
+  </si>
+  <si>
+    <t>{
+    "User": [
+        {
+            "id": "1",
+            "name": "name1",
+            "age": "11"
+        },
+        {
+            "id": "2",
+            "name": "name2",
+            "age": "12"
+        },
+        {
+            "id": "3",
+            "name": "name3",
+            "age": "13"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-2</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-3</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-4</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-5</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-6</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-7</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-8</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_in: [1]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "User": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_in: [6]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "User": []
+  }</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_in: []}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106119 exception</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_in: [1,6,7]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{User(cond:"{ids: {_in: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>Connector execution fail with code: 106103 exception</t>
+  </si>
+  <si>
+    <t>{User(cond:"{id: {_nin: [1,2,3]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>User
+数据源：GET: path 里有参数</t>
+  </si>
+  <si>
+    <t>{User(cond:"{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-9</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+field1 in (...),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation, 
+field1 in (...)</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+ field1 in (...)</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+field1 in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation, 
+field1 in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request, 
+query operation,
+field1 in (...),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+field1 in (...)</t>
+  </si>
+  <si>
+    <t>{User(cond:"{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "User": [
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-10</t>
+  </si>
+  <si>
+    <t>{User(cond:"{\"(id,name)\": {_in: [\"(1,name1)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-11</t>
+  </si>
+  <si>
+    <t>{User(cond:"{\"(id,name)\": {_in: [\"(1,name2)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-12</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation,
+(field1,field2) in (...)</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+(field1,field2) in (...),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>{User(cond:"{\"(id,name)\": {_in: []}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-13</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-14</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-15</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-16</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-17</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-18</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{User(cond:"{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "User": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      },
+      {
+        "id": "3",
+        "name": "name3",
+        "age": "13"
+      },
+      {
+        "id": "4",
+        "name": "name4",
+        "age": "14"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>UserWithBody
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-19</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 and in_condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 or in_condition,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+condition1 or in_condition,
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-20</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-21</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-22</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-23</t>
+  </si>
+  <si>
+    <t>bad request,
+query operation</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody": []
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-24</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-25</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-26</t>
+  </si>
+  <si>
+    <t>good request,
+query operation,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithBody(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithQuery(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>UserWithQuery
+数据源：GET: query 里有参数</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-27</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-28</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-29</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-30</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-31</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-32</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-33</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-34</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "2",
+        "name": "name2",
+        "age": "12"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader": []
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader": [
+      {
+        "id": "1",
+        "name": "name1",
+        "age": "11"
+      },
+      {
+        "id": "5",
+        "name": "name5",
+        "age": "15"
+      },
+      {
+        "id": "6",
+        "name": "name6",
+        "age": "16"
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{UserWithHeader(cond:"{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}") {id name age}}</t>
+  </si>
+  <si>
+    <t>UserWithHeader
+数据源： GET: headers 里有参数</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-35</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-36</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-37</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-38</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-39</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-40</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-41</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-42</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-43</t>
+  </si>
+  <si>
+    <t>good request,
+insert operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-44</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Insert(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-45</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-46</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-47</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "User_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-48</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-49</t>
+  </si>
+  <si>
+    <t>bad request,
+insert operation,
+String field  incorrectly</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Insert(input:
+	[
+        {
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Insert": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>Illegal GraphQL input</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-50</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-51</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-52</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-53</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-54</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-55</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"message\":\"user not exists\"}}||{UserBasicInfo={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-56</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:field1 in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(_in:field1 in (...)),</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-57</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-58</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-59</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(_in:(field1,field2) in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-60</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(_in:(field1,field2) in (...))</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-61</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 and in_condition),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-62</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-63</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 and in_condition),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-64</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-65</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-66</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-67</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-68</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-69</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-70</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-71</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-72</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-73</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-74</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-75</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-76</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 or in_condition),
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition(condition1 or in_condition),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+update operation,
+By Condition,
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-77</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-78</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-79</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-80</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-81</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-82</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-83</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-84</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-85</t>
+  </si>
+  <si>
+    <t>UserWithQuery
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-86</t>
+  </si>
+  <si>
+    <t>UserWithHeader
+数据源：POST: body 里有参数</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-87</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-88</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-89</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-90</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-91</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-92</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-93</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-94</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-95</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete(input:
+	[
+        {
+          id: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-96</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-97</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-98</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-99</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-100</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-101</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-102</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-103</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-104</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-105</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-106</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-107</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-108</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-109</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-110</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-111</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-112</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-113</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_in: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_in: [1]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:field1 in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(_in:field1 in (...)),</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(_in:(field1,field2) in (...)),
+0 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(_in:(field1,field2) in (...))</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 and in_condition),
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 and in_condition),
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 or in_condition),
+3 data retrieved</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition(condition1 or in_condition),
+5 data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_in: [1,6,7]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"message\":\"user not exists\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_in: [6]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"message\":\"user not exists\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_in: []}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{ids: {_in: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{id: {_nin: [1,2,3]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(1,name1)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{\"(id,name)\": {_in: [\"(6,name6)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{\"(id,name)\": {_in: []}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Delete_By_Condition(cond: "{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-114</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-115</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-116</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-117</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-118</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-119</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-120</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-121</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-122</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition,
+1 data retrieved</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition</t>
+  </si>
+  <si>
+    <t>good request,
+delete operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-123</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-124</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-125</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-126</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-127</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-128</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-129</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-130</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-131</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-132</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-133</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-134</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-135</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-136</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-137</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-138</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-139</t>
+  </si>
+  <si>
+    <t>databrain-transferOfFlexibleParams-test-140</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete(input:
+	[
+        {
+          id: "1",
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Delete_By_Condition(cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}")
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Insert(input:
+	[
+        {
+          id:1,
+          name: "name1",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (ids in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id not in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist ((id,name) in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and id in ('2','3') ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [1,6,7]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: [6]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_in: []}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{ids: {_in: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{id: {_nin: [1,2,3]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name1)\",\"(2,name2)\",\"(3,name3)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name2)\",\"(2,name2)\",\"(3,name3)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(1,name1)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: [\"(6,name6)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name)\": {_in: []}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_eq: 1}},{id: {_in: [1,2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_eq: 1}},{id: {_in: [2,3]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   User_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{id: {_in: [1,2,3]}},{id: {_in: [2,3,4,5]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithBody_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithQuery_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update(input:
+	[
+        {
+          id: "1",
+          name: "name1UPDATE",
+          age: "11"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}},{abc: {_eq: 55}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(2,name2,12)\"]}}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_and:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(1,name1,11)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}},{age: {_eq: 11}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   UserWithHeader_Update_By_Condition(input:
+   [
+       {
+          name: "name1UPDATE"
+       }
+   ],
+    cond: "{_or:[{_and:[{id: {_eq: 1}},{name: {_eq: \"name1\"}}]},{\"(id,name,age)\": {_in: [\"(5,name5,15)\",\"(6,name6,16)\"]}}]}"
+   )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name1UPDATE\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (ids in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (id not in ('1','2','3'))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist ((id,name) in ())"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and id in ('2','3') ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"4\",\"name\":\"name4\",\"age\":\"14\"}}||{UserBasicInfo={\"id\":\"3\",\"name\":\"name3\",\"age\":\"13\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>bad request,
+insert operation,
+without id</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Insert": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>bad request,
+update operation,
+By Condition(condition1 and in_condition)</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition(condition1 and in_condition)</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( id = '1' and name = 'name1' and age = '11' and abc = '55' ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"2\",\"name\":\"name2\",\"age\":\"12\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "Conflict conditions exist (( ( id = '1' and name = 'name1' and age = '11' ) and (id,name,age) in (('5','name5','15'),('6','name6','16')) ))"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 0,
+          "data": "{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Delete_By_Condition": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "{UserBasicInfo={\"id\":\"5\",\"name\":\"name5\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name6\",\"age\":\"16\"}}||body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+By Condition,
+2 data retrieved</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithHeader_Update_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1UPDATE\",\"age\":\"11\"}}||{UserBasicInfo={\"id\":\"5\",\"name\":\"name1UPDATE\",\"age\":\"15\"}}||{UserBasicInfo={\"id\":\"6\",\"name\":\"name1UPDATE\",\"age\":\"16\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "User_Delete_By_Condition": {
+        "json_value": [
+            {
+                "code": 0,
+                "data": "{UserBasicInfo={\"id\":\"1\",\"name\":\"name1\",\"age\":\"11\"}}"
+            }
+        ],
+        "reserved_field_1": null,
+        "reserved_field_2": null
+    }
+}</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation
+Restful delete only supports condition mode</t>
+  </si>
+  <si>
+    <t>bad request,
+delete operation,
+Restful delete only supports condition mode</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithBody_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t>{
+    "UserWithQuery_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    "UserWithHeader_Delete": {
+      "json_value": [
+        {
+          "code": 1,
+          "data": "body/path template parse error"
+        }
+      ],
+      "reserved_field_1": null,
+      "reserved_field_2": null
+    }
+  }</t>
   </si>
 </sst>
 </file>
@@ -562,15 +4330,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
@@ -648,14 +4416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22B0A1-EDF6-487D-8C5B-FE5F049504FE}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
@@ -852,4 +4620,3670 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7CA341-499B-4D11-AC62-30A4B93C7A26}">
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="1">
+        <v>200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="1">
+        <v>200</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="1">
+        <v>200</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="1">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="1">
+        <v>200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="1">
+        <v>200</v>
+      </c>
+      <c r="F43" s="1">
+        <v>101403</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="1">
+        <v>200</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>101301</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="1">
+        <v>200</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="1">
+        <v>200</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="1">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="1">
+        <v>200</v>
+      </c>
+      <c r="F57" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" s="1">
+        <v>200</v>
+      </c>
+      <c r="F59" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" s="1">
+        <v>200</v>
+      </c>
+      <c r="F60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62" s="1">
+        <v>200</v>
+      </c>
+      <c r="F62" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" s="1">
+        <v>200</v>
+      </c>
+      <c r="F64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" s="1">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E67" s="1">
+        <v>200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68" s="1">
+        <v>200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69" s="1">
+        <v>200</v>
+      </c>
+      <c r="F69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" s="1">
+        <v>200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E71" s="1">
+        <v>200</v>
+      </c>
+      <c r="F71" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" s="1">
+        <v>200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E73" s="1">
+        <v>200</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E74" s="1">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E75" s="1">
+        <v>200</v>
+      </c>
+      <c r="F75" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E76" s="1">
+        <v>200</v>
+      </c>
+      <c r="F76" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E77" s="1">
+        <v>200</v>
+      </c>
+      <c r="F77" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E78" s="1">
+        <v>200</v>
+      </c>
+      <c r="F78" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E79" s="1">
+        <v>200</v>
+      </c>
+      <c r="F79" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E80" s="1">
+        <v>200</v>
+      </c>
+      <c r="F80" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E81" s="1">
+        <v>200</v>
+      </c>
+      <c r="F81" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E82" s="1">
+        <v>200</v>
+      </c>
+      <c r="F82" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" s="1">
+        <v>200</v>
+      </c>
+      <c r="F84" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E85" s="1">
+        <v>200</v>
+      </c>
+      <c r="F85" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E87" s="1">
+        <v>200</v>
+      </c>
+      <c r="F87" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E89" s="1">
+        <v>200</v>
+      </c>
+      <c r="F89" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E91" s="1">
+        <v>200</v>
+      </c>
+      <c r="F91" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E93" s="1">
+        <v>200</v>
+      </c>
+      <c r="F93" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E95" s="1">
+        <v>200</v>
+      </c>
+      <c r="F95" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E96" s="1">
+        <v>200</v>
+      </c>
+      <c r="F96" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="1">
+        <v>200</v>
+      </c>
+      <c r="F98" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="1">
+        <v>200</v>
+      </c>
+      <c r="F100" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E102" s="1">
+        <v>200</v>
+      </c>
+      <c r="F102" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E103" s="1">
+        <v>200</v>
+      </c>
+      <c r="F103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="1">
+        <v>200</v>
+      </c>
+      <c r="F105" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E106" s="1">
+        <v>200</v>
+      </c>
+      <c r="F106" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="1">
+        <v>200</v>
+      </c>
+      <c r="F107" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E108" s="1">
+        <v>200</v>
+      </c>
+      <c r="F108" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109" s="1">
+        <v>200</v>
+      </c>
+      <c r="F109" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E110" s="1">
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="1">
+        <v>200</v>
+      </c>
+      <c r="F111" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="1">
+        <v>200</v>
+      </c>
+      <c r="F113" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="1">
+        <v>200</v>
+      </c>
+      <c r="F114" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E115" s="1">
+        <v>200</v>
+      </c>
+      <c r="F115" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E116" s="1">
+        <v>200</v>
+      </c>
+      <c r="F116" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="1">
+        <v>200</v>
+      </c>
+      <c r="F117" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E118" s="1">
+        <v>200</v>
+      </c>
+      <c r="F118" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E119" s="1">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120" s="1">
+        <v>200</v>
+      </c>
+      <c r="F120" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E121" s="1">
+        <v>200</v>
+      </c>
+      <c r="F121" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" s="1">
+        <v>200</v>
+      </c>
+      <c r="F122" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E123" s="1">
+        <v>200</v>
+      </c>
+      <c r="F123" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124" s="1">
+        <v>200</v>
+      </c>
+      <c r="F124" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E125" s="1">
+        <v>200</v>
+      </c>
+      <c r="F125" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="1">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E127" s="1">
+        <v>200</v>
+      </c>
+      <c r="F127" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128" s="1">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E129" s="1">
+        <v>200</v>
+      </c>
+      <c r="F129" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E130" s="1">
+        <v>200</v>
+      </c>
+      <c r="F130" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E131" s="1">
+        <v>200</v>
+      </c>
+      <c r="F131" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E132" s="1">
+        <v>200</v>
+      </c>
+      <c r="F132" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" s="1">
+        <v>200</v>
+      </c>
+      <c r="F133" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134" s="1">
+        <v>200</v>
+      </c>
+      <c r="F134" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E135" s="1">
+        <v>200</v>
+      </c>
+      <c r="F135" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E136" s="1">
+        <v>200</v>
+      </c>
+      <c r="F136" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E137" s="1">
+        <v>200</v>
+      </c>
+      <c r="F137" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E138" s="1">
+        <v>200</v>
+      </c>
+      <c r="F138" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" s="1">
+        <v>200</v>
+      </c>
+      <c r="F139" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E140" s="1">
+        <v>200</v>
+      </c>
+      <c r="F140" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E141" s="1">
+        <v>200</v>
+      </c>
+      <c r="F141" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC17B3-B1EC-4971-A1BF-D6B47A96ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4A8D0-5A1C-4BBC-9C5F-31CB3B043F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="getDataGraphQL" sheetId="4" r:id="rId1"/>
+    <sheet name="getDataGraphQL" sheetId="6" r:id="rId1"/>
     <sheet name="queryUpdateFromApiEngine" sheetId="3" r:id="rId2"/>
     <sheet name="transferOfFlexibleParams" sheetId="5" r:id="rId3"/>
+    <sheet name="queryPostgresqlData-backup" sheetId="4" r:id="rId4"/>
+    <sheet name="queryPostgresqlData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="721">
   <si>
     <t>description</t>
   </si>
@@ -3951,12 +3953,2928 @@
     }
   }</t>
   </si>
+  <si>
+    <t>{
+  Equipment(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    sourceSystem
+    type
+    id
+    description
+    isPointOf
+    name
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    sourceSystem
+    type
+    id
+    description
+    isPointOf
+    name
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentFeed(cond:"", authInfo:"", order:"")
+  {
+    id
+    equipment
+    feeds
+    feeds_Room(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+    }
+    feeds_AHU(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  AHU(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+    hasEquipmentLocation_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      equipment
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    hasLocation_Floor(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Humidity_Sensor(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    sourceSystem
+    type
+    id
+    description
+    isPointOf
+    name
+    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+    isPartOf_Floor(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    type
+    sourceId
+    description
+    isPartOf
+    id
+    name
+    isPartOf_Building(cond:"", authInfo:"", order:"")
+    {
+      type
+      sourceId
+      description
+      isPartOf
+      id
+      name
+      subClassOf_Location(cond:"", authInfo:"", order:"")
+      {
+        type
+        sourceId
+        description
+        isPartOf
+        id
+        name
+        isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+        {
+          location
+          id
+          point
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    has_SensorData(cond:"", authInfo:"", order:"")
+    {
+      sensorId
+      value
+      sourceSystem
+      timestamp
+      id
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  SensorData(cond:"", authInfo:"", order:"")
+  {
+    sensorId
+    value
+    sourceSystem
+    timestamp
+    id
+    measure_Sensor(cond:"", authInfo:"", order:"")
+    {
+      _isPointOf
+      sourceId
+      description
+      sourceSystem
+      id
+      name
+      hasSubClass_Wind_Speed_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_CO2_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_AM100(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      description
+      _isPartOf
+      id
+      name
+      hasSubClass_Building(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      subClassOf_Location(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        description
+        _isPartOf
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isPartOf_Building(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      subClassOf_Location(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        description
+        _isPartOf
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      hasLocation_Location(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        description
+        _isPartOf
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasSubClass_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasSubClass_Building(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPart_Floor(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      hasLocation_Floor(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasSubClass_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isPartOf_Floor(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Location(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      equipment
+      hasLocation_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    subClassOf_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      description
+      _isPartOf
+      id
+      name
+      hasSubClass_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPart_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasSubClass_Room_Controller(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      description
+      _isPartOf
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-1</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-2</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-3</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-4</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-5</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-6</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-7</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-8</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-9</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-10</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-11</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-12</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-13</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-14</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-15</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-16</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-17</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-18</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-19</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-20</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-21</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-22</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-23</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-24</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-25</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-26</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-27</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-28</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-29</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-30</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-31</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-32</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-33</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-34</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-35</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-36</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-37</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-38</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-39</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-40</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-41</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-42</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-43</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-44</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-45</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-46</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-47</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-48</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-49</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-50</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-51</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Point-&gt;Sensor-&gt;SensorData</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Point-&gt;PointLocation-&gt;Room</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Point-&gt;Occupancy_Status-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Point-&gt;Equipment-&gt;Room_Controller</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Point-&gt;Temperature_Setpoint-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Point-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;SensorData</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Luminance_Sensor-&gt;Lighting</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Occupancy_Sensor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Power_Sensor-&gt;Lighting</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;CO2_Sensor-&gt;AM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+good request, data retrieved
+Sensor-&gt;Humidity_Sensor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Position_Sensor-&gt;Curtain</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Wind_Speed_Sensor-&gt;Thermostat</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;TVOC_Sensor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Pressure_Sensor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Sensor-&gt;Temperature_Sensor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+SensorData-&gt;Sensor-&gt;Wind_Speed_Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;Location-&gt;Building</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;Room-&gt;Location</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;Building-&gt;Location</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;PointLocation-&gt;Location</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Location-&gt;Floor-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Location-&gt;Building-&gt;Floor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Location-&gt;PointLocation-&gt;Floor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Location-&gt;Room-&gt;Floor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Location-&gt;EquipmentLocation-&gt;Room</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Location-&gt;Room</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Floor-&gt;Room</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Location-&gt;Building</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Floor-&gt;Building</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Occupancy_Status-&gt;Point</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;TVOC_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Occupancy_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Pressure_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;CO2_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Humidity_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Temperature_Setpoint-&gt;Thermostat</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Luminance_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Temperature_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Power_Sensor-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Point-&gt;Equipment</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+PointLocation-&gt;Room-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Point-&gt;Temperature_Setpoint</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Lighting-&gt;Luminance_Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Curtain-&gt;Position_Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;AM100-&gt;CO2_Sensor</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Thermostat-&gt;Wind_Speed_Senso</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Room_Controller_Unit-&gt;EquipmentLocation</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;Room_Controller</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Equipment-&gt;EquipmentLocation-&gt;Lighting</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Sensor(cond:"", authInfo:"", order:"")
+    {
+      _isPointOf
+      sourceId
+      description
+      sourceSystem
+      id
+      name
+      has_SensorData(cond:"", authInfo:"", order:"")
+      {
+        sensorId
+        value
+        sourceSystem
+        timestamp
+        id
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      hasLocation_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Occupancy_Status(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Temperature_Setpoint(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    subClassOf_Point(cond:"", authInfo:"", order:"")
+    {
+      _isPointOf
+      sourceId
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Point(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    isPointOf_Equipment(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      description
+      _isPartOf
+      id
+      name
+      hasSubClass_Room_Controller(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        description
+        _isPartOf
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Luminance_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Lighting(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Occupancy_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Power_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Lighting(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Humidity_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Position_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Curtain(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Wind_Speed_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Thermostat(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_TVOC_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Pressure_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Sensor(cond:"{name: {_eq: \"SS_Mock_B5.F14.RM2.Light.Luminance\"}}", authInfo:"", order:"")
+  {
+    _isPointOf
+    sourceId
+    description
+    sourceSystem
+    id
+    name
+    hasSubClass_Temperature_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      hasPointLocation_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Occupancy_Status(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Point(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_TVOC_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Occupancy_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Pressure_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_CO2_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Humidity_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Temperature_Setpoint(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Thermostat(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Luminance_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Temperature_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Power_Sensor(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      _isPointOf
+      type
+      description
+      sourceSystem
+      id
+      name
+      subClassOf_Sensor(cond:"", authInfo:"", order:"")
+      {
+        _isPointOf
+        sourceId
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    isPointLocationOf_Point(cond:"", authInfo:"", order:"")
+    {
+      _isPointOf
+      sourceId
+      description
+      sourceSystem
+      id
+      name
+      isPointOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        description
+        _isPartOf
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"{location: {_eq: \"403cab75a77847c5842ef3e26c8be278\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    hasLocation_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>SensorData</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>PointLocation</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>EquipmentLocation</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Thermostat-&gt;Sensor</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Curtain-&gt;Equipment</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Location-&gt;PointLocation</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    hasLocation_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      subClassOf_Location(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Room-&gt;Location</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Lighting-&gt;Equipment</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Room_Controller_Unit</t>
+  </si>
+  <si>
+    <t>EquipmentLocation-&gt;Equipmen-&gt;Point</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-52</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-53</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-54</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-55</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-56</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-57</t>
+  </si>
+  <si>
+    <t>databrain-queryPostgresqlData-test-58</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasPoint_Point(cond:"", authInfo:"", order:"")
+    {
+      _isPointOf
+      sourceId
+      description
+      sourceSystem
+      id
+      name
+      hasSubClass_Temperature_Setpoint(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasSubClass_Lighting(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPoint_Luminance_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    sourceId
+    description
+    _isPartOf
+    id
+    name
+    hasEquipmentLocation_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      equipment
+      isEquipmentLocationOf_Lighting(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasSubClass_Curtain(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPoint_Position_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasSubClass_Thermostat(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPoint_Wind_Speed_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Equipment(cond:"{name: {_eq: \"SS_Mock_B2.F3.RM7.TT\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasSubClass_Room_Controller_Unit(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasEquipmentLocation_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    isEquipmentLocationOf_Thermostat(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPoint_Humidity_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    isEquipmentLocationOf_Curtain(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      subClassOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    hasLocation_Location(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        point
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    isEquipmentLocationOf_Lighting(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      subClassOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    isEquipmentLocationOf_Room_Controller_Unit(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  EquipmentLocation(cond:"{location: {_eq: \"b3468e3e637a4558b145b02898aa1be5\"}}", authInfo:"", order:"")
+  {
+    location
+    id
+    equipment
+    isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPoint_Point(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    hasLocation_Location(cond:"", authInfo:"", order:"")
+    {
+      sourceId
+      description
+      _isPartOf
+      id
+      name
+      hasSubClass_Building(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  PointLocation(cond:"", authInfo:"", order:"")
+  {
+    location
+    id
+    point
+    hasLocation_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isPartOf_Building(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Floor-&gt;Room
+楼宇信息 楼层信息 区域信息</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"{id:{_eq:\"ef07258f432843d3a37a1cbf31d94724\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Building-&gt;Floor
+根据指定楼宇获取楼层列表</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+Floor-&gt;Room
+根据指定楼层获取空间列表</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取会议室当前模式及各需求点位信息</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+查询Mode Sensor 及mode option（涵盖模式枚举信息）</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取会议室模式sensor及模式option</t>
+  </si>
+  <si>
+    <t>{
+  Room(cond:"{id:{_eq:\"1b3fd342805244e085f07c9e7a7ffdf1\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      equipment
+      isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据楼层获得所有设备信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据空间id查询设备列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据指定楼层获取设备列表</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"SS_Mock_B1.F2.RM13.CT2%\"}}", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+模糊查询设备(需要添加condition)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据device id获取mode sensor</t>
+    </r>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据 增加时间条件</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取楼层占用传感器使用情况数据</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Power_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;Power_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取能耗值</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_Power_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;Temperature_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取温度值</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_Temperature_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment-&gt;Room_Controller-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+查询室内温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Floor-&gt;PointLocation-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取湿度</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_Humidity_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;CO2_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;CO2_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取CO2浓度</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_CO2_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;PM25_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;PM25_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取PM2.5浓度</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3983,8 +6901,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4000,6 +6925,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4031,7 +6962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4046,6 +6977,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4327,11 +7273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4405,8 +7351,117 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4417,7 +7472,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4626,8 +7681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7CA341-499B-4D11-AC62-30A4B93C7A26}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8286,4 +11341,1852 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="62.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="5">
+        <v>200</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="5">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E10" s="5">
+        <v>200</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="5">
+        <v>200</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E13" s="5">
+        <v>200</v>
+      </c>
+      <c r="F13" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="5">
+        <v>200</v>
+      </c>
+      <c r="F15" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E16" s="5">
+        <v>200</v>
+      </c>
+      <c r="F16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="5">
+        <v>200</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E19" s="5">
+        <v>200</v>
+      </c>
+      <c r="F19" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="5">
+        <v>200</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22" s="5">
+        <v>200</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
+      <c r="F23" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
+      <c r="F24" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E27" s="5">
+        <v>200</v>
+      </c>
+      <c r="F27" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E28" s="5">
+        <v>200</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E29" s="5">
+        <v>200</v>
+      </c>
+      <c r="F29" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" s="5">
+        <v>200</v>
+      </c>
+      <c r="F30" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E32" s="5">
+        <v>200</v>
+      </c>
+      <c r="F32" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E33" s="5">
+        <v>200</v>
+      </c>
+      <c r="F33" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200</v>
+      </c>
+      <c r="F34" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E35" s="5">
+        <v>200</v>
+      </c>
+      <c r="F35" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E36" s="5">
+        <v>200</v>
+      </c>
+      <c r="F36" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" s="5">
+        <v>200</v>
+      </c>
+      <c r="F37" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E38" s="5">
+        <v>200</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E40" s="5">
+        <v>200</v>
+      </c>
+      <c r="F40" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E41" s="5">
+        <v>200</v>
+      </c>
+      <c r="F41" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E42" s="5">
+        <v>200</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E43" s="5">
+        <v>200</v>
+      </c>
+      <c r="F43" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E44" s="5">
+        <v>200</v>
+      </c>
+      <c r="F44" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E45" s="5">
+        <v>200</v>
+      </c>
+      <c r="F45" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E46" s="5">
+        <v>200</v>
+      </c>
+      <c r="F46" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E47" s="5">
+        <v>200</v>
+      </c>
+      <c r="F47" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="10">
+        <v>200</v>
+      </c>
+      <c r="F48" s="10">
+        <v>100000</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E49" s="5">
+        <v>200</v>
+      </c>
+      <c r="F49" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E50" s="5">
+        <v>200</v>
+      </c>
+      <c r="F50" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E51" s="5">
+        <v>200</v>
+      </c>
+      <c r="F51" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E52" s="5">
+        <v>200</v>
+      </c>
+      <c r="F52" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E53" s="5">
+        <v>200</v>
+      </c>
+      <c r="F53" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E54" s="5">
+        <v>200</v>
+      </c>
+      <c r="F54" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E55" s="5">
+        <v>200</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E56" s="5">
+        <v>200</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E57" s="5">
+        <v>200</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E58" s="5">
+        <v>200</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E59" s="5">
+        <v>200</v>
+      </c>
+      <c r="F59" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70680153-503C-4505-8AE3-05CAD87026D8}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="5">
+        <v>200</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E3" s="5">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5">
+        <v>200</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4A8D0-5A1C-4BBC-9C5F-31CB3B043F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE82AA67-F859-426F-B83F-2356390D2601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="724">
   <si>
     <t>description</t>
   </si>
@@ -3955,227 +3955,6 @@
   </si>
   <si>
     <t>{
-  Equipment(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Location(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Point(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    sourceSystem
-    type
-    id
-    description
-    isPointOf
-    name
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    sourceSystem
-    type
-    id
-    description
-    isPointOf
-    name
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  EquipmentFeed(cond:"", authInfo:"", order:"")
-  {
-    id
-    equipment
-    feeds
-    feeds_Room(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-    }
-    feeds_AHU(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  AHU(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-    hasEquipmentLocation_EquipmentLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      equipment
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  EquipmentLocation(cond:"", authInfo:"", order:"")
-  {
-    location
-    id
-    equipment
-    hasLocation_Floor(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Building(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      point
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Humidity_Sensor(cond:"", authInfo:"", order:"")
-  {
-    sourceId
-    sourceSystem
-    type
-    id
-    description
-    isPointOf
-    name
-    isPointOf_Thermostat(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Room(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-    isPartOf_Floor(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    type
-    sourceId
-    description
-    isPartOf
-    id
-    name
-    isPartOf_Building(cond:"", authInfo:"", order:"")
-    {
-      type
-      sourceId
-      description
-      isPartOf
-      id
-      name
-      subClassOf_Location(cond:"", authInfo:"", order:"")
-      {
-        type
-        sourceId
-        description
-        isPartOf
-        id
-        name
-        isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
-        {
-          location
-          id
-          point
-        }
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
   Sensor(cond:"", authInfo:"", order:"")
   {
     _isPointOf
@@ -6262,28 +6041,6 @@
     <t>good request, data retrieved
 Building-&gt;Floor
 根据指定楼宇获取楼层列表</t>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
-      id
-      name
-    }
-  }
-}</t>
   </si>
   <si>
     <t>good request, data retrieved
@@ -6371,6 +6128,453 @@
 }</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据楼层获得所有设备信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据空间id查询设备列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据指定楼层获取设备列表</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      {
+        location
+        id
+        equipment
+        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"SS_Mock_B1.F2.RM13.CT2%\"}}", authInfo:"", order:"")
+        {
+          _isPartOf
+          sourceId
+          description
+          type
+          id
+          name
+        }
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+模糊查询设备(需要添加condition)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Room-&gt;Equipment-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据device id获取mode sensor</t>
+    </r>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取当前会议室/工位占用传感器数据 增加时间条件</t>
+  </si>
+  <si>
+    <t>good request, data retrieved
+获取楼层占用传感器使用情况数据</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Power_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;Power_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取能耗值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;Temperature_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取温度值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Equipment-&gt;Room_Controller-&gt;Temperature_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+查询室内温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Floor-&gt;PointLocation-&gt;Humidity_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取湿度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;CO2_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;CO2_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取CO2浓度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">good request, data retrieved
+Floor-&gt;Sensor-&gt;PM25_Sensor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floor-&gt;PointLocation-&gt;PM25_Sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+获取PM2.5浓度</t>
+    </r>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-3</t>
+  </si>
+  <si>
+    <t>Successfully</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-4</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-5</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-6</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-11</t>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-12</t>
+  </si>
+  <si>
+    <t>{
+  Building(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Floor(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+      hasPart_Room(cond:"", authInfo:"", order:"")
+      {
+        _isPartOf
+        sourceId
+        description
+        type
+        id
+        name
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Equipment {type sourceId description _isPartOf id name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Location {type sourceId description _isPartOf id name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Point {sourceId sourceSystem type id description _isPointOf name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Sensor {sourceId sourceSystem type id description _isPointOf name}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Humidity_Sensor {sourceId sourceSystem type id description _isPointOf name isPointOf_Thermostat {type sourceId description _isPartOf id name}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Room {type sourceId description _isPartOf id name isPartOf_Floor {type sourceId description _isPartOf id name}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    hasPart_Room(cond:"", authInfo:"", order:"")
+    {
+      _isPartOf
+      sourceId
+      description
+      type
+      id
+      name
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
   {
@@ -6406,91 +6610,11 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Equipment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-根据楼层获得所有设备信息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Room-&gt;Equipment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Room-&gt;EquipmentLocation-&gt;Equipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-根据空间id查询设备列表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Equipment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-根据指定楼层获取设备列表</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"{id:{_eq:\"f66b6b2328cd4f4bbfe6d20d7a7814f6\"}}", authInfo:"", order:"")
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
   {
     _isPartOf
     sourceId
@@ -6498,125 +6622,85 @@
     type
     id
     name
-    hasPart_Room(cond:"", authInfo:"", order:"")
-    {
-      _isPartOf
-      sourceId
-      description
-      type
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
       id
-      name
-      isLocationOf_EquipmentLocation(cond:"", authInfo:"", order:"")
+      point
+      isPointLocationOf_Humidity_Sensor(cond:"", authInfo:"", order:"")
       {
-        location
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
         id
-        equipment
-        isEquipmentLocationOf_Equipment(cond:"{name:{_like:\"SS_Mock_B1.F2.RM13.CT2%\"}}", authInfo:"", order:"")
-        {
-          _isPartOf
-          sourceId
-          description
-          type
-          id
-          name
-        }
+        name
       }
     }
   }
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Equipment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-模糊查询设备(需要添加condition)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Room-&gt;Equipment-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Room-&gt;EquipmentLocation-&gt;Equipment-&gt;Point-&gt;Sensor-&gt;Mode_Sensor-&gt;Mode_Option</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-根据device id获取mode sensor</t>
-    </r>
-  </si>
-  <si>
-    <t>good request, data retrieved
-获取当前会议室/工位占用传感器数据</t>
-  </si>
-  <si>
-    <t>good request, data retrieved
-获取当前会议室/工位占用传感器数据 增加时间条件</t>
-  </si>
-  <si>
-    <t>good request, data retrieved
-获取楼层占用传感器使用情况数据</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Sensor-&gt;Power_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;PointLocation-&gt;Power_Sensor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-获取能耗值</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_CO2_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  Floor(cond:"", authInfo:"", order:"")
+  {
+    _isPartOf
+    sourceId
+    description
+    type
+    id
+    name
+    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
+    {
+      location
+      id
+      point
+      isPointLocationOf_Temperature_Sensor(cond:"", authInfo:"", order:"")
+      {
+        sourceId
+        _isPointOf
+        type
+        description
+        sourceSystem
+        id
+        name
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -6646,266 +6730,52 @@
     }
   }
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Sensor-&gt;Temperature_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;PointLocation-&gt;Temperature_Sensor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-获取温度值</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      point
-      isPointLocationOf_Temperature_Sensor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        _isPointOf
-        type
-        description
-        sourceSystem
-        id
-        name
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Equipment-&gt;Room_Controller-&gt;Temperature_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;Room-&gt;EquipmentLocation-&gt;Equipment?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-查询室内温度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Sensor-&gt;Humidity_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Floor-&gt;PointLocation-&gt;Humidity_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取湿度</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      point
-      isPointLocationOf_Humidity_Sensor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        _isPointOf
-        type
-        description
-        sourceSystem
-        id
-        name
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Sensor-&gt;CO2_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;PointLocation-&gt;CO2_Sensor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-获取CO2浓度</t>
-    </r>
-  </si>
-  <si>
-    <t>{
-  Floor(cond:"", authInfo:"", order:"")
-  {
-    _isPartOf
-    sourceId
-    description
-    type
-    id
-    name
-    isLocationOf_PointLocation(cond:"", authInfo:"", order:"")
-    {
-      location
-      id
-      point
-      isPointLocationOf_CO2_Sensor(cond:"", authInfo:"", order:"")
-      {
-        sourceId
-        _isPointOf
-        type
-        description
-        sourceSystem
-        id
-        name
-      }
-    }
-  }
-}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">good request, data retrieved
-Floor-&gt;Sensor-&gt;PM25_Sensor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Floor-&gt;PointLocation-&gt;PM25_Sensor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-获取PM2.5浓度</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7274,13 +7144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -7291,7 +7161,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7311,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -7331,7 +7201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -7351,117 +7221,128 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>705</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7475,7 +7356,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -7493,7 +7374,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7534,7 +7415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -7567,7 +7448,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7600,7 +7481,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -7633,7 +7514,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -7685,7 +7566,7 @@
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -7698,7 +7579,7 @@
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7724,7 +7605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -7750,7 +7631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -7776,7 +7657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -7802,7 +7683,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -7828,7 +7709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -7852,7 +7733,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -7876,7 +7757,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -7900,7 +7781,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -7926,7 +7807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -7952,7 +7833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -7978,7 +7859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -8004,7 +7885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -8028,7 +7909,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -8054,7 +7935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -8080,7 +7961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -8106,7 +7987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -8132,7 +8013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -8158,7 +8039,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -8184,7 +8065,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -8210,7 +8091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -8234,7 +8115,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>111</v>
       </c>
@@ -8258,7 +8139,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>112</v>
       </c>
@@ -8284,7 +8165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
@@ -8310,7 +8191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
@@ -8336,7 +8217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
@@ -8362,7 +8243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -8386,7 +8267,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -8412,7 +8293,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -8436,7 +8317,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
@@ -8460,7 +8341,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>147</v>
       </c>
@@ -8486,7 +8367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
@@ -8512,7 +8393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>149</v>
       </c>
@@ -8538,7 +8419,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
@@ -8564,7 +8445,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
@@ -8588,7 +8469,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>165</v>
       </c>
@@ -8614,7 +8495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>166</v>
       </c>
@@ -8638,7 +8519,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>167</v>
       </c>
@@ -8662,7 +8543,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>168</v>
       </c>
@@ -8688,7 +8569,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -8714,7 +8595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>170</v>
       </c>
@@ -8740,7 +8621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
@@ -8766,7 +8647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -8790,7 +8671,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -8816,7 +8697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -8842,7 +8723,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>183</v>
       </c>
@@ -8868,7 +8749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
@@ -8892,7 +8773,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
@@ -8918,7 +8799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>188</v>
       </c>
@@ -8944,7 +8825,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>189</v>
       </c>
@@ -8970,7 +8851,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -8996,7 +8877,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>195</v>
       </c>
@@ -9022,7 +8903,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>197</v>
       </c>
@@ -9048,7 +8929,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>198</v>
       </c>
@@ -9074,7 +8955,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
@@ -9100,7 +8981,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>200</v>
       </c>
@@ -9126,7 +9007,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
@@ -9152,7 +9033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>208</v>
       </c>
@@ -9178,7 +9059,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
@@ -9204,7 +9085,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>214</v>
       </c>
@@ -9230,7 +9111,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>216</v>
       </c>
@@ -9256,7 +9137,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>218</v>
       </c>
@@ -9282,7 +9163,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>220</v>
       </c>
@@ -9308,7 +9189,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>221</v>
       </c>
@@ -9334,7 +9215,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>224</v>
       </c>
@@ -9360,7 +9241,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>225</v>
       </c>
@@ -9386,7 +9267,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>226</v>
       </c>
@@ -9412,7 +9293,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>227</v>
       </c>
@@ -9438,7 +9319,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>230</v>
       </c>
@@ -9464,7 +9345,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>231</v>
       </c>
@@ -9490,7 +9371,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>232</v>
       </c>
@@ -9516,7 +9397,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>233</v>
       </c>
@@ -9542,7 +9423,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>234</v>
       </c>
@@ -9568,7 +9449,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>235</v>
       </c>
@@ -9594,7 +9475,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>236</v>
       </c>
@@ -9620,7 +9501,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>237</v>
       </c>
@@ -9646,7 +9527,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>238</v>
       </c>
@@ -9672,7 +9553,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
@@ -9698,7 +9579,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -9724,7 +9605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>248</v>
       </c>
@@ -9750,7 +9631,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -9776,7 +9657,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>250</v>
       </c>
@@ -9802,7 +9683,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -9828,7 +9709,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>252</v>
       </c>
@@ -9854,7 +9735,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>253</v>
       </c>
@@ -9880,7 +9761,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>254</v>
       </c>
@@ -9906,7 +9787,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>257</v>
       </c>
@@ -9932,7 +9813,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
@@ -9958,7 +9839,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>261</v>
       </c>
@@ -9984,7 +9865,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>262</v>
       </c>
@@ -10010,7 +9891,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>263</v>
       </c>
@@ -10036,7 +9917,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>264</v>
       </c>
@@ -10062,7 +9943,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>265</v>
       </c>
@@ -10088,7 +9969,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -10114,7 +9995,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>267</v>
       </c>
@@ -10140,7 +10021,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>268</v>
       </c>
@@ -10166,7 +10047,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>272</v>
       </c>
@@ -10192,7 +10073,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>275</v>
       </c>
@@ -10218,7 +10099,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>276</v>
       </c>
@@ -10244,7 +10125,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>277</v>
       </c>
@@ -10270,7 +10151,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>278</v>
       </c>
@@ -10296,7 +10177,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>279</v>
       </c>
@@ -10322,7 +10203,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>280</v>
       </c>
@@ -10348,7 +10229,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>281</v>
       </c>
@@ -10374,7 +10255,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>282</v>
       </c>
@@ -10400,7 +10281,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>283</v>
       </c>
@@ -10426,7 +10307,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>284</v>
       </c>
@@ -10452,7 +10333,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>285</v>
       </c>
@@ -10478,7 +10359,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
@@ -10504,7 +10385,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>287</v>
       </c>
@@ -10530,7 +10411,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>288</v>
       </c>
@@ -10556,7 +10437,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>289</v>
       </c>
@@ -10582,7 +10463,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>290</v>
       </c>
@@ -10608,7 +10489,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>291</v>
       </c>
@@ -10634,7 +10515,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>325</v>
       </c>
@@ -10660,7 +10541,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>326</v>
       </c>
@@ -10686,7 +10567,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>327</v>
       </c>
@@ -10712,7 +10593,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>328</v>
       </c>
@@ -10738,7 +10619,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>329</v>
       </c>
@@ -10764,7 +10645,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>330</v>
       </c>
@@ -10790,7 +10671,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>331</v>
       </c>
@@ -10816,7 +10697,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>332</v>
       </c>
@@ -10842,7 +10723,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>333</v>
       </c>
@@ -10868,7 +10749,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>357</v>
       </c>
@@ -10894,7 +10775,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>358</v>
       </c>
@@ -10920,7 +10801,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>359</v>
       </c>
@@ -10946,7 +10827,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>360</v>
       </c>
@@ -10972,7 +10853,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>361</v>
       </c>
@@ -10998,7 +10879,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>362</v>
       </c>
@@ -11024,7 +10905,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>363</v>
       </c>
@@ -11050,7 +10931,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>364</v>
       </c>
@@ -11076,7 +10957,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>365</v>
       </c>
@@ -11102,7 +10983,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>366</v>
       </c>
@@ -11128,7 +11009,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>367</v>
       </c>
@@ -11154,7 +11035,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>368</v>
       </c>
@@ -11180,7 +11061,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>369</v>
       </c>
@@ -11206,7 +11087,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>370</v>
       </c>
@@ -11232,7 +11113,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>371</v>
       </c>
@@ -11258,7 +11139,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>372</v>
       </c>
@@ -11284,7 +11165,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>373</v>
       </c>
@@ -11310,7 +11191,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>374</v>
       </c>
@@ -11347,11 +11228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB954454-8325-44B2-8EFC-770E32FDCBE2}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -11363,7 +11244,7 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -11386,432 +11267,432 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="5">
+        <v>200</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="5">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" s="5">
+        <v>200</v>
+      </c>
+      <c r="F10" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" s="5">
+        <v>200</v>
+      </c>
+      <c r="F12" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C13" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E13" s="5">
+        <v>200</v>
+      </c>
+      <c r="F13" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
+      <c r="F14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E2" s="5">
-        <v>200</v>
-      </c>
-      <c r="F2" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E15" s="5">
+        <v>200</v>
+      </c>
+      <c r="F15" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E3" s="5">
-        <v>200</v>
-      </c>
-      <c r="F3" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E16" s="5">
+        <v>200</v>
+      </c>
+      <c r="F16" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E4" s="5">
-        <v>200</v>
-      </c>
-      <c r="F4" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E17" s="5">
+        <v>200</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E6" s="5">
-        <v>200</v>
-      </c>
-      <c r="F6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E7" s="5">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C19" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="5">
+        <v>200</v>
+      </c>
+      <c r="F19" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E9" s="5">
-        <v>200</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E10" s="5">
-        <v>200</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E12" s="5">
-        <v>200</v>
-      </c>
-      <c r="F12" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E13" s="5">
-        <v>200</v>
-      </c>
-      <c r="F13" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E14" s="5">
-        <v>200</v>
-      </c>
-      <c r="F14" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E15" s="5">
-        <v>200</v>
-      </c>
-      <c r="F15" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E16" s="5">
-        <v>200</v>
-      </c>
-      <c r="F16" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="E17" s="5">
-        <v>200</v>
-      </c>
-      <c r="F17" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E18" s="5">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E19" s="5">
-        <v>200</v>
-      </c>
-      <c r="F19" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E20" s="5">
         <v>200</v>
@@ -11823,18 +11704,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E21" s="5">
         <v>200</v>
@@ -11846,18 +11727,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E22" s="5">
         <v>200</v>
@@ -11869,18 +11750,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E23" s="5">
         <v>200</v>
@@ -11892,567 +11773,567 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
+      <c r="F24" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" s="5">
+        <v>200</v>
+      </c>
+      <c r="F27" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="5">
+        <v>200</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" s="5">
+        <v>200</v>
+      </c>
+      <c r="F29" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E30" s="5">
+        <v>200</v>
+      </c>
+      <c r="F30" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E32" s="5">
+        <v>200</v>
+      </c>
+      <c r="F32" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E33" s="5">
+        <v>200</v>
+      </c>
+      <c r="F33" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200</v>
+      </c>
+      <c r="F34" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E24" s="5">
-        <v>200</v>
-      </c>
-      <c r="F24" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="C35" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E35" s="5">
+        <v>200</v>
+      </c>
+      <c r="F35" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E25" s="5">
-        <v>200</v>
-      </c>
-      <c r="F25" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C36" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E36" s="5">
+        <v>200</v>
+      </c>
+      <c r="F36" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E26" s="5">
-        <v>200</v>
-      </c>
-      <c r="F26" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C37" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E37" s="5">
+        <v>200</v>
+      </c>
+      <c r="F37" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E27" s="5">
-        <v>200</v>
-      </c>
-      <c r="F27" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="C38" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="5">
+        <v>200</v>
+      </c>
+      <c r="F38" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E28" s="5">
-        <v>200</v>
-      </c>
-      <c r="F28" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="C39" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E39" s="5">
+        <v>200</v>
+      </c>
+      <c r="F39" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E29" s="5">
-        <v>200</v>
-      </c>
-      <c r="F29" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="C40" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E40" s="5">
+        <v>200</v>
+      </c>
+      <c r="F40" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" s="5">
-        <v>200</v>
-      </c>
-      <c r="F30" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="C41" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E41" s="5">
+        <v>200</v>
+      </c>
+      <c r="F41" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E31" s="5">
-        <v>200</v>
-      </c>
-      <c r="F31" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="C42" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E42" s="5">
+        <v>200</v>
+      </c>
+      <c r="F42" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E32" s="5">
-        <v>200</v>
-      </c>
-      <c r="F32" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C43" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E43" s="5">
+        <v>200</v>
+      </c>
+      <c r="F43" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C44" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E33" s="5">
-        <v>200</v>
-      </c>
-      <c r="F33" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="E44" s="5">
+        <v>200</v>
+      </c>
+      <c r="F44" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E34" s="5">
-        <v>200</v>
-      </c>
-      <c r="F34" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="C45" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E45" s="5">
+        <v>200</v>
+      </c>
+      <c r="F45" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E35" s="5">
-        <v>200</v>
-      </c>
-      <c r="F35" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C46" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E46" s="5">
+        <v>200</v>
+      </c>
+      <c r="F46" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E36" s="5">
-        <v>200</v>
-      </c>
-      <c r="F36" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C47" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E47" s="5">
+        <v>200</v>
+      </c>
+      <c r="F47" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B48" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E37" s="5">
-        <v>200</v>
-      </c>
-      <c r="F37" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E38" s="5">
-        <v>200</v>
-      </c>
-      <c r="F38" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E39" s="5">
-        <v>200</v>
-      </c>
-      <c r="F39" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C48" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="E40" s="5">
-        <v>200</v>
-      </c>
-      <c r="F40" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E41" s="5">
-        <v>200</v>
-      </c>
-      <c r="F41" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E42" s="5">
-        <v>200</v>
-      </c>
-      <c r="F42" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="E43" s="5">
-        <v>200</v>
-      </c>
-      <c r="F43" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E44" s="5">
-        <v>200</v>
-      </c>
-      <c r="F44" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E45" s="5">
-        <v>200</v>
-      </c>
-      <c r="F45" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E46" s="5">
-        <v>200</v>
-      </c>
-      <c r="F46" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="E47" s="5">
-        <v>200</v>
-      </c>
-      <c r="F47" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>659</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="10">
@@ -12465,248 +12346,248 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E49" s="5">
+        <v>200</v>
+      </c>
+      <c r="F49" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E50" s="5">
+        <v>200</v>
+      </c>
+      <c r="F50" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E51" s="5">
+        <v>200</v>
+      </c>
+      <c r="F51" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E52" s="5">
+        <v>200</v>
+      </c>
+      <c r="F52" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E53" s="5">
+        <v>200</v>
+      </c>
+      <c r="F53" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E49" s="5">
-        <v>200</v>
-      </c>
-      <c r="F49" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E50" s="5">
-        <v>200</v>
-      </c>
-      <c r="F50" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E51" s="5">
-        <v>200</v>
-      </c>
-      <c r="F51" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E52" s="5">
-        <v>200</v>
-      </c>
-      <c r="F52" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E54" s="5">
+        <v>200</v>
+      </c>
+      <c r="F54" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E55" s="5">
+        <v>200</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E53" s="5">
-        <v>200</v>
-      </c>
-      <c r="F53" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E56" s="5">
+        <v>200</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E54" s="5">
-        <v>200</v>
-      </c>
-      <c r="F54" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E57" s="5">
+        <v>200</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E55" s="5">
-        <v>200</v>
-      </c>
-      <c r="F55" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E58" s="5">
+        <v>200</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E56" s="5">
-        <v>200</v>
-      </c>
-      <c r="F56" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E57" s="5">
-        <v>200</v>
-      </c>
-      <c r="F57" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E58" s="5">
-        <v>200</v>
-      </c>
-      <c r="F58" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>675</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="E59" s="5">
         <v>200</v>
@@ -12729,11 +12610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70680153-503C-4505-8AE3-05CAD87026D8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.88671875" style="2" customWidth="1"/>
@@ -12745,7 +12626,7 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -12768,18 +12649,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>522</v>
+        <v>711</v>
       </c>
       <c r="E2" s="5">
         <v>200</v>
@@ -12791,18 +12672,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
@@ -12814,18 +12695,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="E4" s="5">
         <v>200</v>
@@ -12837,18 +12718,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
@@ -12860,18 +12741,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
@@ -12883,18 +12764,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
@@ -12906,18 +12787,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E8" s="5">
         <v>200</v>
@@ -12929,12 +12810,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>33</v>
@@ -12950,15 +12831,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5">
@@ -12971,15 +12852,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="5">
@@ -12992,15 +12873,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
@@ -13011,12 +12892,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1"/>
@@ -13028,12 +12909,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1"/>
@@ -13045,12 +12926,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="1"/>
@@ -13062,18 +12943,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
@@ -13083,18 +12964,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
@@ -13104,12 +12985,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>33</v>
@@ -13123,18 +13004,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
@@ -13144,18 +13025,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
@@ -13165,12 +13046,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>33</v>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15882D-2BD7-4DAD-9C6C-907B09EB4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716DF40A-5559-48A6-AD1C-64CCDA70D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>description</t>
   </si>
@@ -494,7 +494,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,7 +503,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3760,43 +3760,96 @@
   <si>
     <t>反控空调模式</t>
   </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-3</t>
+  </si>
+  <si>
+    <t>{Equipment {type sourceId description _isPartOf id name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-4</t>
+  </si>
+  <si>
+    <t>{Location {type sourceId description _isPartOf id name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-5</t>
+  </si>
+  <si>
+    <t>{Point {sourceId sourceSystem type id description _isPointOf name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-6</t>
+  </si>
+  <si>
+    <t>{Sensor {sourceId sourceSystem type id description _isPointOf name}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-11</t>
+  </si>
+  <si>
+    <t>{Humidity_Sensor {sourceId sourceSystem type id description _isPointOf name isPointOf_Thermostat {type sourceId description _isPartOf id name}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>databrain-getDataGraphQL-test-12</t>
+  </si>
+  <si>
+    <t>{Room {type sourceId description _isPartOf id name isPartOf_Floor {type sourceId description _isPartOf id name}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4150,13 +4203,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -4167,7 +4220,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4187,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -4207,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -4227,7 +4280,128 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2">
+        <v>200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4241,7 +4415,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -4259,7 +4433,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4300,7 +4474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +4507,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4540,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4399,7 +4573,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="234.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4447,11 +4621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70680153-503C-4505-8AE3-05CAD87026D8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -4464,7 +4638,7 @@
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4490,7 +4664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -4516,7 +4690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -4542,7 +4716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -4568,7 +4742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
@@ -4594,7 +4768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>60</v>
       </c>
@@ -4620,7 +4794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>64</v>
       </c>
@@ -4640,7 +4814,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>66</v>
       </c>
@@ -4666,7 +4840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -4692,7 +4866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>75</v>
       </c>
@@ -4718,7 +4892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -4744,7 +4918,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>84</v>
       </c>
@@ -4770,7 +4944,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>88</v>
       </c>
@@ -4796,7 +4970,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>91</v>
       </c>
@@ -4822,7 +4996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
@@ -4848,7 +5022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>98</v>
       </c>
@@ -4874,7 +5048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>102</v>
       </c>
@@ -4898,7 +5072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>106</v>
       </c>
@@ -4922,7 +5096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
@@ -4946,7 +5120,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>110</v>
       </c>
@@ -4970,7 +5144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
@@ -4994,7 +5168,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>114</v>
       </c>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6A5CA-FED8-4F90-B580-A15628486FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4B4D6-5688-404C-86C5-B2249184CD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL" sheetId="6" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1334,13 +1334,13 @@
       <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2">
-        <v>200</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1351,16 +1351,16 @@
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2">
-        <v>200</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1371,16 +1371,16 @@
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1391,16 +1391,16 @@
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1411,16 +1411,16 @@
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="2">
-        <v>200</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1431,16 +1431,16 @@
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2">
-        <v>200</v>
-      </c>
-      <c r="E9" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70680153-503C-4505-8AE3-05CAD87026D8}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFDC281-AC09-4E23-AE0B-72D1EE0B9A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0267038D-EE06-497C-91CE-ACEDD18C4B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="getDataGraphQL" sheetId="6" r:id="rId1"/>
+    <sheet name="getDataGraphQL-bc" sheetId="6" r:id="rId1"/>
     <sheet name="queryUpdateFromApiEngine" sheetId="3" r:id="rId2"/>
     <sheet name="verifySmartSpaceWenSiQueryFunc" sheetId="7" r:id="rId3"/>
     <sheet name="verifySmartSpacePropertyFunc" sheetId="8" r:id="rId4"/>
@@ -9250,8 +9250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9666,7 +9666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441672E3-2DED-4E9A-92CB-8665FC4F9165}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0267038D-EE06-497C-91CE-ACEDD18C4B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A22C9C-B90B-4DC7-87F4-2E16881B6650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL-bc" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="729">
   <si>
     <t>description</t>
   </si>
@@ -8556,10 +8556,6 @@
     <t>smartspace-mutation -test-1</t>
   </si>
   <si>
-    <t>update灯
-Luminance_Setpoint</t>
-  </si>
-  <si>
     <t>mutation mutationName{
    Luminance_Setpoint_Update(input:
    [
@@ -8583,10 +8579,6 @@
     <t>smartspace-mutation -test-2</t>
   </si>
   <si>
-    <t>update 会议室模式
-Mode_Command</t>
-  </si>
-  <si>
     <t>mutation mutationName{
    Mode_Command_Update(input:
    [
@@ -8607,23 +8599,6 @@
     <t>smartspace-mutation -test-3</t>
   </si>
   <si>
-    <t>mutation mutationName{
-   Mode_Command_Update(input:
-   [
-        {
-          sourceId: "GmsDevice_1_7105_29360128.Present_Value",
-          value: "0"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>smartspace-mutation -test-4</t>
   </si>
   <si>
@@ -8651,10 +8626,6 @@
     <t>smartspace-mutation -test-5</t>
   </si>
   <si>
-    <t>update 窗帘开合度
-Position_Command</t>
-  </si>
-  <si>
     <t>mutation mutationName{
    Position_Command_Update(input:
    [
@@ -8675,10 +8646,6 @@
     <t>smartspace-mutation -test-6</t>
   </si>
   <si>
-    <t>update空调风速
-Speed_Setpoint</t>
-  </si>
-  <si>
     <t>mutation mutationName{
    Speed_Setpoint_Update(input:
    [
@@ -8694,9 +8661,6 @@
         reserved_field_2
     }
 }</t>
-  </si>
-  <si>
-    <t>smartspace-mutation -test-7</t>
   </si>
   <si>
     <t>Update空调温度
@@ -8843,6 +8807,49 @@
     }
   }
 }</t>
+  </si>
+  <si>
+    <t>Update灯
+Luminance_Setpoint</t>
+  </si>
+  <si>
+    <t>Update 会议室模式
+Mode_Command</t>
+  </si>
+  <si>
+    <t>Update 窗帘开合度
+Position_Command</t>
+  </si>
+  <si>
+    <t>Update空调风速
+Speed_Setpoint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">获取Temperature_Sensor（室内温度℃）实时数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按时间升序（captureTime ASC）排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Point(type='Temperature_Sensor',sourceId='')-&gt;Timeseries(captureTime)
+sourcesystem:Desigocc</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9250,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13585E94-2A3C-423F-8526-0CA62361FED2}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9854,7 +9861,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E8" s="5">
         <v>200</v>
@@ -9877,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E9" s="5">
         <v>200</v>
@@ -9900,7 +9907,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E10" s="5">
         <v>200</v>
@@ -10084,7 +10091,7 @@
         <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E18" s="5">
         <v>200</v>
@@ -10107,7 +10114,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E19" s="5">
         <v>200</v>
@@ -12080,8 +12087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD19F9B6-DC75-4BF7-B9E0-0E87F10FA6D7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12776,7 +12783,7 @@
         <v>576</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>577</v>
+        <v>728</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>462</v>
@@ -12808,7 +12815,7 @@
         <v>582</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>577</v>
+        <v>728</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>462</v>
@@ -13547,10 +13554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C1EE03-E73B-49E8-9A64-35D7806FB5EA}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13600,13 +13607,13 @@
         <v>704</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E2" s="5">
         <v>200</v>
@@ -13621,21 +13628,21 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>365</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
@@ -13650,15 +13657,15 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>709</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>365</v>
@@ -13679,21 +13686,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
@@ -13708,21 +13715,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
@@ -13737,21 +13744,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
@@ -13766,39 +13773,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="124.2" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A22C9C-B90B-4DC7-87F4-2E16881B6650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED5818-2886-4831-973C-B4D951D4D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="getDataGraphQL-bc" sheetId="6" r:id="rId1"/>
@@ -4773,18 +4773,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
-            "description": "灯光控制",
-            "type": "Luminance_Setpoint"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>smartspace-property-test-52</t>
   </si>
   <si>
@@ -4820,32 +4808,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
-            "description": "灯光控制",
-            "type": "Luminance_Setpoint",
-            "hasPointLocation_PointLocation": [
-                {
-                    "sourceId": "73b97708f1404419a1e10b31baba725a",
-                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
-                    "description": "灯光控制",
-                    "hasLocation_Room": {
-                        "sourceId": "2",
-                        "name": "Room_A",
-                        "description": "Meeting Room A",
-                        "type": "Room"
-                    },
-                    "type": "Luminance_Setpoint"
-                }
-            ]
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>smartspace-property-test-53</t>
   </si>
   <si>
@@ -4871,24 +4833,6 @@
       type
     }
   }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Luminance_Setpoint": [
-        {
-            "sourceId": "System1:GmsDevice_4_7130_1090519068.Present_Value",
-            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
-            "description": "灯光控制",
-            "isPointOf_Room_Controller_Unit": {
-                "sourceId": "System1:GmsDevice_4_7130_33561562",
-                "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130",
-                "description": "TRA controller",
-                "type": "Room_Controller_Unit"
-            },
-            "type": "Luminance_Setpoint"
-        }
-    ]
 }</t>
   </si>
   <si>
@@ -8556,23 +8500,6 @@
     <t>smartspace-mutation -test-1</t>
   </si>
   <si>
-    <t>mutation mutationName{
-   Luminance_Setpoint_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_1090519068.Present_Value",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
-  </si>
-  <si>
     <t>"ErrorCode":0</t>
   </si>
   <si>
@@ -8624,23 +8551,6 @@
   </si>
   <si>
     <t>smartspace-mutation -test-5</t>
-  </si>
-  <si>
-    <t>mutation mutationName{
-   Position_Command_Update(input:
-   [
-        {
-          sourceId: "System1:GmsDevice_4_7130_1082130448.Present_Value.Height",
-          value: "1"
-        }
-    ]
-    )
-    {
-        json_value
-        reserved_field_1
-        reserved_field_2
-    }
-}</t>
   </si>
   <si>
     <t>smartspace-mutation -test-6</t>
@@ -8850,6 +8760,96 @@
 Point(type='Temperature_Sensor',sourceId='')-&gt;Timeseries(captureTime)
 sourcesystem:Desigocc</t>
     </r>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_1_7130_121634957.LgtCmd_Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "type": "Luminance_Setpoint"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_1_7130_121634957.LgtCmd_Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "type": "Luminance_Setpoint",
+            "hasPointLocation_PointLocation": [
+                {
+                    "sourceId": "73b97708f1404419a1e10b31baba725a",
+                    "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01.RSegm_7130.Lgt(1).",
+                    "description": "灯光控制",
+                    "hasLocation_Room": {
+                        "sourceId": "2",
+                        "name": "Room_A",
+                        "description": "Meeting Room A",
+                        "type": "Room"
+                    },
+                    "type": "Luminance_Setpoint"
+                }
+            ]
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Luminance_Setpoint": [
+        {
+            "sourceId": "System1:GmsDevice_1_7130_121634957.LgtCmd_Present_Value",
+            "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130.B_01RSegm_7130LgtDev(1)LgtCmd(1)",
+            "description": "灯光控制",
+            "isPointOf_Room_Controller_Unit": {
+                "sourceId": "System1:GmsDevice_4_7130_33561562",
+                "name": "System1.ManagementView:ManagementView.FieldNetworks.BACnetNetwork.Hardware.AS_7130",
+                "description": "TRA controller",
+                "type": "Room_Controller_Unit"
+            },
+            "type": "Luminance_Setpoint"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Luminance_Setpoint_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_1_7130_121634957.LgtCmd_Present_Value",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
+  </si>
+  <si>
+    <t>mutation mutationName{
+   Position_Command_Update(input:
+   [
+        {
+          sourceId: "System1:GmsDevice_1_7130_121635069.BlsCmd_Present_Value.Height",
+          value: "1"
+        }
+    ]
+    )
+    {
+        json_value
+        reserved_field_1
+        reserved_field_2
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -9673,7 +9673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441672E3-2DED-4E9A-92CB-8665FC4F9165}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -9861,7 +9861,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E8" s="5">
         <v>200</v>
@@ -9884,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E9" s="5">
         <v>200</v>
@@ -9907,7 +9907,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E10" s="5">
         <v>200</v>
@@ -10091,7 +10091,7 @@
         <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E18" s="5">
         <v>200</v>
@@ -10114,7 +10114,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E19" s="5">
         <v>200</v>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519CB4A6-6F8A-45D6-84CD-9C3197C0A0DF}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -11502,22 +11502,22 @@
         <v>7</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>353</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="138" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E53" s="5">
         <v>200</v>
       </c>
@@ -11528,22 +11528,22 @@
         <v>7</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>358</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="138" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="D54" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E54" s="5">
         <v>200</v>
       </c>
@@ -11554,527 +11554,527 @@
         <v>7</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>363</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="138" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="5">
+        <v>200</v>
+      </c>
+      <c r="F55" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="5">
-        <v>200</v>
-      </c>
-      <c r="F55" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="138" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="E56" s="5">
+        <v>200</v>
+      </c>
+      <c r="F56" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E56" s="5">
-        <v>200</v>
-      </c>
-      <c r="F56" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="138" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="E57" s="5">
+        <v>200</v>
+      </c>
+      <c r="F57" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E57" s="5">
-        <v>200</v>
-      </c>
-      <c r="F57" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="138" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="E58" s="5">
+        <v>200</v>
+      </c>
+      <c r="F58" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E58" s="5">
-        <v>200</v>
-      </c>
-      <c r="F58" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="138" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" s="5">
+        <v>200</v>
+      </c>
+      <c r="F59" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E59" s="5">
-        <v>200</v>
-      </c>
-      <c r="F59" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="E60" s="5">
+        <v>200</v>
+      </c>
+      <c r="F60" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E60" s="5">
-        <v>200</v>
-      </c>
-      <c r="F60" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="138" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="E61" s="5">
+        <v>200</v>
+      </c>
+      <c r="F61" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="5">
-        <v>200</v>
-      </c>
-      <c r="F61" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="138" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E62" s="5">
+        <v>200</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" s="5">
-        <v>200</v>
-      </c>
-      <c r="F62" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="138" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="E63" s="5">
+        <v>200</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E63" s="5">
-        <v>200</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="138" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E64" s="5">
+        <v>200</v>
+      </c>
+      <c r="F64" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E64" s="5">
-        <v>200</v>
-      </c>
-      <c r="F64" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="138" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="E65" s="5">
+        <v>200</v>
+      </c>
+      <c r="F65" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E65" s="5">
-        <v>200</v>
-      </c>
-      <c r="F65" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="138" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="E66" s="5">
+        <v>200</v>
+      </c>
+      <c r="F66" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E66" s="5">
-        <v>200</v>
-      </c>
-      <c r="F66" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" s="5">
+        <v>200</v>
+      </c>
+      <c r="F67" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E67" s="5">
-        <v>200</v>
-      </c>
-      <c r="F67" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="138" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="E68" s="5">
+        <v>200</v>
+      </c>
+      <c r="F68" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E68" s="5">
-        <v>200</v>
-      </c>
-      <c r="F68" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="138" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E69" s="5">
+        <v>200</v>
+      </c>
+      <c r="F69" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E69" s="5">
-        <v>200</v>
-      </c>
-      <c r="F69" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="138" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="E70" s="5">
+        <v>200</v>
+      </c>
+      <c r="F70" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E70" s="5">
-        <v>200</v>
-      </c>
-      <c r="F70" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E71" s="5">
+        <v>200</v>
+      </c>
+      <c r="F71" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E71" s="5">
-        <v>200</v>
-      </c>
-      <c r="F71" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="138" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="E72" s="5">
+        <v>200</v>
+      </c>
+      <c r="F72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E72" s="5">
-        <v>200</v>
-      </c>
-      <c r="F72" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="138" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="E73" s="5">
+        <v>200</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E73" s="5">
-        <v>200</v>
-      </c>
-      <c r="F73" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="138" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="E74" s="5">
+        <v>200</v>
+      </c>
+      <c r="F74" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E74" s="5">
-        <v>200</v>
-      </c>
-      <c r="F74" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -12087,8 +12087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD19F9B6-DC75-4BF7-B9E0-0E87F10FA6D7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12120,13 +12120,13 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
@@ -12140,25 +12140,25 @@
     </row>
     <row r="2" spans="1:10" ht="153.6" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="H2" s="5">
         <v>200</v>
@@ -12172,25 +12172,25 @@
     </row>
     <row r="3" spans="1:10" ht="153.6" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="H3" s="5">
         <v>200</v>
@@ -12204,25 +12204,25 @@
     </row>
     <row r="4" spans="1:10" ht="153.6" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H4" s="5">
         <v>200</v>
@@ -12236,25 +12236,25 @@
     </row>
     <row r="5" spans="1:10" ht="153.6" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="H5" s="5">
         <v>200</v>
@@ -12268,25 +12268,25 @@
     </row>
     <row r="6" spans="1:10" ht="153.6" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="H6" s="5">
         <v>200</v>
@@ -12300,25 +12300,25 @@
     </row>
     <row r="7" spans="1:10" ht="153.6" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="H7" s="5">
         <v>200</v>
@@ -12332,25 +12332,25 @@
     </row>
     <row r="8" spans="1:10" ht="153.6" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="H8" s="5">
         <v>200</v>
@@ -12364,25 +12364,25 @@
     </row>
     <row r="9" spans="1:10" ht="153.6" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="H9" s="5">
         <v>200</v>
@@ -12396,25 +12396,25 @@
     </row>
     <row r="10" spans="1:10" ht="153.6" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="H10" s="5">
         <v>200</v>
@@ -12428,25 +12428,25 @@
     </row>
     <row r="11" spans="1:10" ht="153.6" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="H11" s="5">
         <v>200</v>
@@ -12460,25 +12460,25 @@
     </row>
     <row r="12" spans="1:10" ht="153.6" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="H12" s="5">
         <v>200</v>
@@ -12492,25 +12492,25 @@
     </row>
     <row r="13" spans="1:10" ht="153.6" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="H13" s="5">
         <v>200</v>
@@ -12524,25 +12524,25 @@
     </row>
     <row r="14" spans="1:10" ht="153.6" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="H14" s="5">
         <v>200</v>
@@ -12556,25 +12556,25 @@
     </row>
     <row r="15" spans="1:10" ht="153.6" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="F15" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="H15" s="5">
         <v>200</v>
@@ -12588,25 +12588,25 @@
     </row>
     <row r="16" spans="1:10" ht="153.6" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="H16" s="5">
         <v>200</v>
@@ -12620,25 +12620,25 @@
     </row>
     <row r="17" spans="1:10" ht="153.6" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="H17" s="5">
         <v>200</v>
@@ -12652,25 +12652,25 @@
     </row>
     <row r="18" spans="1:10" ht="153.6" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="F18" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H18" s="5">
         <v>200</v>
@@ -12684,25 +12684,25 @@
     </row>
     <row r="19" spans="1:10" ht="153.6" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="F19" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="H19" s="5">
         <v>200</v>
@@ -12716,25 +12716,25 @@
     </row>
     <row r="20" spans="1:10" ht="153.6" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="H20" s="5">
         <v>200</v>
@@ -12748,25 +12748,25 @@
     </row>
     <row r="21" spans="1:10" ht="153.6" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="H21" s="5">
         <v>200</v>
@@ -12780,25 +12780,25 @@
     </row>
     <row r="22" spans="1:10" ht="153.6" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="H22" s="5">
         <v>200</v>
@@ -12812,25 +12812,25 @@
     </row>
     <row r="23" spans="1:10" ht="153.6" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="H23" s="5">
         <v>200</v>
@@ -12844,25 +12844,25 @@
     </row>
     <row r="24" spans="1:10" ht="153.6" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="H24" s="5">
         <v>200</v>
@@ -12876,25 +12876,25 @@
     </row>
     <row r="25" spans="1:10" ht="153.6" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="F25" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="H25" s="5">
         <v>200</v>
@@ -12908,25 +12908,25 @@
     </row>
     <row r="26" spans="1:10" ht="153.6" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="F26" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="H26" s="5">
         <v>200</v>
@@ -12940,25 +12940,25 @@
     </row>
     <row r="27" spans="1:10" ht="153.6" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="H27" s="5">
         <v>200</v>
@@ -12972,25 +12972,25 @@
     </row>
     <row r="28" spans="1:10" ht="153.6" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H28" s="5">
         <v>200</v>
@@ -13004,25 +13004,25 @@
     </row>
     <row r="29" spans="1:10" ht="153.6" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H29" s="5">
         <v>200</v>
@@ -13036,25 +13036,25 @@
     </row>
     <row r="30" spans="1:10" ht="153.6" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H30" s="5">
         <v>200</v>
@@ -13068,25 +13068,25 @@
     </row>
     <row r="31" spans="1:10" ht="153.6" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H31" s="5">
         <v>200</v>
@@ -13100,25 +13100,25 @@
     </row>
     <row r="32" spans="1:10" ht="153.6" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="H32" s="5">
         <v>200</v>
@@ -13132,25 +13132,25 @@
     </row>
     <row r="33" spans="1:10" ht="153.6" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="H33" s="5">
         <v>200</v>
@@ -13164,25 +13164,25 @@
     </row>
     <row r="34" spans="1:10" ht="153.6" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="H34" s="5">
         <v>200</v>
@@ -13196,25 +13196,25 @@
     </row>
     <row r="35" spans="1:10" ht="153.6" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="F35" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="H35" s="5">
         <v>200</v>
@@ -13228,25 +13228,25 @@
     </row>
     <row r="36" spans="1:10" ht="153.6" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="F36" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="H36" s="5">
         <v>200</v>
@@ -13260,25 +13260,25 @@
     </row>
     <row r="37" spans="1:10" ht="153.6" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="F37" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="H37" s="5">
         <v>200</v>
@@ -13292,25 +13292,25 @@
     </row>
     <row r="38" spans="1:10" ht="153.6" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="H38" s="5">
         <v>200</v>
@@ -13324,25 +13324,25 @@
     </row>
     <row r="39" spans="1:10" ht="153.6" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="H39" s="5">
         <v>200</v>
@@ -13356,25 +13356,25 @@
     </row>
     <row r="40" spans="1:10" ht="153.6" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="F40" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="H40" s="5">
         <v>200</v>
@@ -13388,25 +13388,25 @@
     </row>
     <row r="41" spans="1:10" ht="153.6" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="F41" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="H41" s="5">
         <v>200</v>
@@ -13420,25 +13420,25 @@
     </row>
     <row r="42" spans="1:10" ht="153.6" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="F42" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="H42" s="5">
         <v>200</v>
@@ -13452,25 +13452,25 @@
     </row>
     <row r="43" spans="1:10" ht="153.6" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="F43" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="H43" s="5">
         <v>200</v>
@@ -13484,25 +13484,25 @@
     </row>
     <row r="44" spans="1:10" ht="153.6" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="F44" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="H44" s="5">
         <v>200</v>
@@ -13516,25 +13516,25 @@
     </row>
     <row r="45" spans="1:10" ht="153.6" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="F45" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="H45" s="5">
         <v>200</v>
@@ -13556,8 +13556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C1EE03-E73B-49E8-9A64-35D7806FB5EA}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13599,21 +13599,21 @@
         <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="124.2" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>351</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="E2" s="5">
         <v>200</v>
@@ -13628,21 +13628,21 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="124.2" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
@@ -13657,21 +13657,21 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.2" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E4" s="5">
         <v>200</v>
@@ -13686,21 +13686,21 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.2" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
@@ -13715,21 +13715,21 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="124.2" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>337</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
@@ -13744,21 +13744,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.2" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>323</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
+++ b/src/main/resources/test-data-xls/databrain-api-engine-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED5818-2886-4831-973C-B4D951D4D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226B94D-CE7C-42C1-B473-0A3342780587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13556,8 +13556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C1EE03-E73B-49E8-9A64-35D7806FB5EA}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
